--- a/test/test_sum.xlsx
+++ b/test/test_sum.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krakotay\Documents\rust\xlsx-quick-append-rs\python-bindings\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krakotay\Documents\rust\xlsx-quick-append-rs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32234F9-AD49-408B-8BD5-CB93049C73F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECC375-D5FD-415E-969C-2B514CC8BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -375,4 +390,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB913E82-6BC4-474D-AEF6-B0583A22D679}">
+  <dimension ref="F12:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test_sum.xlsx
+++ b/test/test_sum.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krakotay\Documents\rust\xlsx-quick-append-rs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECC375-D5FD-415E-969C-2B514CC8BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047A9850-90EF-4F66-ADFF-733DBB3DC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,20 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>bf</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,32 +375,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB913E82-6BC4-474D-AEF6-B0583A22D679}">
-  <dimension ref="F12:L18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>